--- a/v3/example/Data.xlsx
+++ b/v3/example/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="15420"/>
+    <workbookView windowWidth="28080" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -80,8 +80,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,53 +170,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -157,54 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,10 +208,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,7 +239,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +293,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,49 +365,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,31 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,67 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,16 +448,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -478,17 +478,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,15 +527,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,26 +545,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,16 +565,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,115 +583,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/v3/example/Data.xlsx
+++ b/v3/example/Data.xlsx
@@ -25,10 +25,10 @@
     <t>比例</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>技能列表</t>
   </si>
   <si>
-    <t>技能列表</t>
+    <t>类型</t>
   </si>
   <si>
     <t>扎克镇</t>
@@ -37,16 +37,16 @@
     <t>狂鼠</t>
   </si>
   <si>
-    <t>1|2|</t>
+    <t>1|2</t>
   </si>
   <si>
     <t>阿努比斯神庙</t>
   </si>
   <si>
-    <t>法鸡</t>
+    <t>100|9|86</t>
   </si>
   <si>
-    <t>100|9|86</t>
+    <t>法鸡</t>
   </si>
 </sst>
 </file>
@@ -55,8 +55,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -86,40 +86,115 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,23 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,68 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,61 +263,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,49 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,25 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,15 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,10 +501,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -522,8 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +540,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,19 +1036,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1065,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -1075,14 +1079,17 @@
       <c r="C2" s="3">
         <v>3.14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="3">
         <v>200</v>
       </c>
@@ -1098,61 +1105,73 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:3">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:3">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:3">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:3">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:3">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:3">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:3">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:3">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:3">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:3">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:3">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
